--- a/3 курс/6 семестр/ИАД 3/Данные2.xlsx
+++ b/3 курс/6 семестр/ИАД 3/Данные2.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
   <si>
     <t>Значение</t>
   </si>
@@ -38,6 +39,18 @@
   <si>
     <t>Группа 4</t>
   </si>
+  <si>
+    <t>20-40</t>
+  </si>
+  <si>
+    <t>41-60</t>
+  </si>
+  <si>
+    <t>61-80</t>
+  </si>
+  <si>
+    <t>81-100</t>
+  </si>
 </sst>
 </file>
 
@@ -54,25 +67,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3A3A3A"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -104,10 +111,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -388,10 +393,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>66.06</v>
+      </c>
+      <c r="B3">
+        <v>76.75</v>
+      </c>
+      <c r="C3">
+        <v>108.78</v>
+      </c>
+      <c r="D3">
+        <v>110.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>42.92</v>
+      </c>
+      <c r="B4">
+        <v>79.81</v>
+      </c>
+      <c r="C4">
+        <v>118.09</v>
+      </c>
+      <c r="D4">
+        <v>127.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>54.2</v>
+      </c>
+      <c r="B5">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="C5">
+        <v>89.88</v>
+      </c>
+      <c r="D5">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>57.23</v>
+      </c>
+      <c r="C6">
+        <v>98.04</v>
+      </c>
+      <c r="D6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>44.44</v>
+      </c>
+      <c r="B7">
+        <v>53.61</v>
+      </c>
+      <c r="C7">
+        <v>111.99</v>
+      </c>
+      <c r="D7">
+        <v>97.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>46.52</v>
+      </c>
+      <c r="B8">
+        <v>71.19</v>
+      </c>
+      <c r="C8">
+        <v>97.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>47.05</v>
+      </c>
+      <c r="B9">
+        <v>60.44</v>
+      </c>
+      <c r="C9">
+        <v>112.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>52.01</v>
+      </c>
+      <c r="B10">
+        <v>61.83</v>
+      </c>
+      <c r="C10">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="B11">
+        <v>56.55</v>
+      </c>
+      <c r="C11">
+        <v>105.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="B12">
+        <v>67.28</v>
+      </c>
+      <c r="C12">
+        <v>100.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="B13">
+        <v>110.93</v>
+      </c>
+      <c r="C13">
+        <v>119.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="B14">
+        <v>74.16</v>
+      </c>
+      <c r="C14">
+        <v>93.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>36.1</v>
+      </c>
+      <c r="B15">
+        <v>81.3</v>
+      </c>
+      <c r="C15">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>43.69</v>
+      </c>
+      <c r="B16">
+        <v>48.46</v>
+      </c>
+      <c r="C16">
+        <v>100.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>39.4</v>
+      </c>
+      <c r="B17">
+        <v>53.78</v>
+      </c>
+      <c r="C17">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>33.14</v>
+      </c>
+      <c r="B18">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="C18">
+        <v>85.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>31.01</v>
+      </c>
+      <c r="B19">
+        <v>39.82</v>
+      </c>
+      <c r="C19">
+        <v>99.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25.59</v>
+      </c>
+      <c r="B20">
+        <v>51.43</v>
+      </c>
+      <c r="C20">
+        <v>88.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>27.21</v>
+      </c>
+      <c r="B21">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C21">
+        <v>73.430000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>37.42</v>
+      </c>
+      <c r="B22">
+        <v>50.7</v>
+      </c>
+      <c r="C22">
+        <v>66.790000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>38.65</v>
+      </c>
+      <c r="B23">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23.27</v>
+      </c>
+      <c r="B24">
+        <v>39.869999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30.22</v>
+      </c>
+      <c r="B25">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29.34</v>
+      </c>
+      <c r="B26">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>37.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,226 +727,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>110.69</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>66.06</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>127.76</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>42.92</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>108.78</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>54.2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>118.09</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>92.03</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>44.44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>89.88</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>46.52</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>98.04</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>47.05</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>111.99</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>52.01</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>97.59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>70.349999999999994</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>112.75</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>70.239999999999995</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>98</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>40.159999999999997</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>76.75</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>34.549999999999997</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>119.1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>36.1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>97.57</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>43.69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>79.81</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>39.4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>68.239999999999995</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>33.14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>105.01</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>31.01</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>100.46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>25.59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>57.23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>27.21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>53.61</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>37.42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>119.33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>38.65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>93.17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>23.27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>71.19</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>30.22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>60.44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>29.34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>90.8</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>37.21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>100.53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>76.75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>79.81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>57.23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>53.61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>71.19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>60.44</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>61.83</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>56.55</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>67.28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>110.93</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>74.16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>48.46</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>53.78</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>39.82</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>51.43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>38.96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>36.31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>25.95</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>108.78</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>118.09</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>89.88</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>98.04</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>111.99</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>97.59</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>112.75</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>119.1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>105.01</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>100.46</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>119.33</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>93.17</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>100.53</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>87.7</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>85.96</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>99.13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>88.84</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>110.69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>127.76</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>98</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>97.57</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
     </row>
